--- a/disagreement_matrix/engineering_version/auc_results_sub/Arrhythmia_withoutdupl_46.xlsx
+++ b/disagreement_matrix/engineering_version/auc_results_sub/Arrhythmia_withoutdupl_46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Histogram-base Outlier Detection (HBOS)</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>COPOD</t>
-  </si>
-  <si>
-    <t>Locally Selective Combinatio (LSCP)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,14 +459,6 @@
         <v>0.7575600827630115</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.7582763011300334</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
